--- a/biology/Médecine/Henri_Dor/Henri_Dor.xlsx
+++ b/biology/Médecine/Henri_Dor/Henri_Dor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Dor est un ophtalmologue et espérantiste suisse né le 4 octobre 1835 à Vevey et mort le 28 octobre 1912 à Caluire-et-Cuire[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Dor est un ophtalmologue et espérantiste suisse né le 4 octobre 1835 à Vevey et mort le 28 octobre 1912 à Caluire-et-Cuire,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a étudié la médecine à l'université de Zurich, puis a complété son éducation en ophtalmologie à Vienne, Berlin, Paris, Londres, Édimbourg et Utrecht. À partir de 1860, il travaille comme ophtalmologue à Vevey, puis est nommé en 1867 professeur d'ophtalmologie à l'Université de Berne.
 En 1876, il renonce au professorat et ouvre une clinique privée à Lyon. Il a fondé la Revue générale d'ophtalmologie avec Edouard Meyer. Il a fait aussi partie des fondateurs de la Société d'ophtalmologie de Heidelberg. Il est devenu en 1881 membre de la Société d'anthropologie de Lyon, qu'il a présidée en 1898 et en 1909.
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur, 1912[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur, 1912.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des différences individuelles de la réfraction de l'œil, 1860.
 De la vision chez les arthropodes, 1861.
